--- a/Corpus/Default_Messages.xlsx
+++ b/Corpus/Default_Messages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Sample_Chatbot\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89CDE3B-431A-4880-B7B4-B4D8B28DBA76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E1FEE-C1D4-4F9F-91BB-EDF2731357FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>Hi, I am SAM, the Search Assistant Manager. How can I help you today ?</t>
+    <t>Hi, I am Clever Brain Technologies Assistant. How can I help you today ?</t>
   </si>
 </sst>
 </file>
